--- a/Tester.xlsx
+++ b/Tester.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briun\Dropbox\HSK Vocab CSV Excel Files\HSK5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\briun\Dropbox\GitHub\ChineseStrokeWars\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Character</t>
   </si>
@@ -122,13 +122,16 @@
   </si>
   <si>
     <t>Composed Character</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +142,13 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,17 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,20 +500,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26AA581-DAB1-4C7F-B60B-0D162B905ABB}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -540,7 +552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -563,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,7 +598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -619,6 +631,11 @@
       </c>
       <c r="K4" s="5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
